--- a/biology/Médecine/Lidi_Bessi_Kama/Lidi_Bessi_Kama.xlsx
+++ b/biology/Médecine/Lidi_Bessi_Kama/Lidi_Bessi_Kama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lidi Bessi Kama (épouse Gumedzoe), née le 15 mars 1979 à Lomé[1], est une médecin et femme politique togolaise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lidi Bessi Kama (épouse Gumedzoe), née le 15 mars 1979 à Lomé, est une médecin et femme politique togolaise.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle étudie au collège Notre Dame des Apôtres de Lomé puis obtient son baccalauréat lycée de Tokoin en 1996. Elle passe alors son concours d'entrée à l'École du service de santé des armées de Lomé et est par la suite diplômée d'un doctorat d'État en médecine à l'université de Lomé et se spécialise dans la pédiatrie et hygiène infantile, ainsi qu'en médecine du sport à l'université de Cocody[2].
-Elle est médecin-lieutenant colonel des Forces armées togolaises et présidente de la Commission médicale de l'International Handball federation. Ancienne membre de la Confédération africaine de handball[3]. Elle a été commissaire de la Commission nationale des droits de l'homme (CNDH Togo) d'avril 2019 à octobre 2020.
-Elle est ministre des Sports et des Loisirs du Togo depuis le 1er octobre 2020[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle étudie au collège Notre Dame des Apôtres de Lomé puis obtient son baccalauréat lycée de Tokoin en 1996. Elle passe alors son concours d'entrée à l'École du service de santé des armées de Lomé et est par la suite diplômée d'un doctorat d'État en médecine à l'université de Lomé et se spécialise dans la pédiatrie et hygiène infantile, ainsi qu'en médecine du sport à l'université de Cocody.
+Elle est médecin-lieutenant colonel des Forces armées togolaises et présidente de la Commission médicale de l'International Handball federation. Ancienne membre de la Confédération africaine de handball. Elle a été commissaire de la Commission nationale des droits de l'homme (CNDH Togo) d'avril 2019 à octobre 2020.
+Elle est ministre des Sports et des Loisirs du Togo depuis le 1er octobre 2020,.
 </t>
         </is>
       </c>
